--- a/Bachelor/Microsoft Excel-Arbeitsblatt (neu).xlsx
+++ b/Bachelor/Microsoft Excel-Arbeitsblatt (neu).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Julius Rublack\Bachelor\Bachelor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D359D633-7BFA-4A6D-BC8E-48BD20AC75BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>Temperatur</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>Zyklen</t>
+  </si>
+  <si>
+    <t>95 °C</t>
+  </si>
+  <si>
+    <t>60s</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>60 °C</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>45x</t>
+  </si>
+  <si>
+    <t>40 °C</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +374,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bachelor/Microsoft Excel-Arbeitsblatt (neu).xlsx
+++ b/Bachelor/Microsoft Excel-Arbeitsblatt (neu).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius PC\Desktop\Bachelor\Bachelor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/745d74a4dee6b669/Desktop/Bachelor-main/Bachelor/Bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48646AF-6C41-47ED-9F9C-FBD5334B7FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{F48646AF-6C41-47ED-9F9C-FBD5334B7FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9F0E28D-5D59-468D-AB8A-697F6FF8AA7D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Bestandteil</t>
-  </si>
-  <si>
-    <t>Konzentration</t>
-  </si>
-  <si>
-    <t>50x PSM</t>
-  </si>
-  <si>
-    <t>tbd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>TTGAATGCATATGACCAGAGTGGAAGGCTT</t>
+  </si>
+  <si>
+    <t>GGAGGAAGTAAACACTCAGAAAGAAGGGAA</t>
+  </si>
+  <si>
+    <t>GAGACATGAACAACAGAGATGCAAGGCAAA</t>
+  </si>
+  <si>
+    <t>CCTTCATTAAGACGCTCGAAGAGTGARTTG</t>
+  </si>
+  <si>
+    <t>TGAATGTCCTTCATTAAGACGCTCGAAGAG</t>
+  </si>
+  <si>
+    <t>ATTGGGGTGTTTGAGGAATGTTCCGTTTAC</t>
+  </si>
+  <si>
+    <t>ATCCATTGGGGTGTTTGAGGAATGTTCCGT</t>
+  </si>
+  <si>
+    <t>CTTGTATCCATTGGGGTGTTTGAGGAATGT</t>
+  </si>
+  <si>
+    <t>AGTTGATAAGGACTTGTATCCATTGGGGTG</t>
+  </si>
+  <si>
+    <t>GCTAAACTTGTTGCTACTGATGATCTTACAG\colorbox{Snow2}{12}G\colorbox{Snow2}{3}AGGATGAAGAAGATGG</t>
+  </si>
+  <si>
+    <t>GTTCCGTTTGACAATAAAAAGGGATATGCG\colorbox{Snow2}{12}A\colorbox{Snow2}{3}TGTATTGTCCYTGAGAG</t>
+  </si>
+  <si>
+    <t>Sonde 1.1</t>
+  </si>
+  <si>
+    <t>Sonde 3.1</t>
+  </si>
+  <si>
+    <t>forward 1</t>
+  </si>
+  <si>
+    <t>forward 3</t>
+  </si>
+  <si>
+    <t>forward 4</t>
+  </si>
+  <si>
+    <t>reverse 1.1</t>
+  </si>
+  <si>
+    <t>reverse 1.2</t>
+  </si>
+  <si>
+    <t>reverse 3.3</t>
+  </si>
+  <si>
+    <t>reverse 3.6</t>
+  </si>
+  <si>
+    <t>reverse 3.10</t>
+  </si>
+  <si>
+    <t>reverse 3.15</t>
+  </si>
+  <si>
+    <t>509 bp</t>
+  </si>
+  <si>
+    <t>472 bp</t>
+  </si>
+  <si>
+    <t>559 bp</t>
+  </si>
+  <si>
+    <t>586 bp</t>
+  </si>
+  <si>
+    <t>707 bp</t>
+  </si>
+  <si>
+    <t>720 bp</t>
+  </si>
+  <si>
+    <t>727 bp</t>
+  </si>
+  <si>
+    <t>654 bp</t>
+  </si>
+  <si>
+    <t>565 bp</t>
+  </si>
+  <si>
+    <t>569 bp</t>
+  </si>
+  <si>
+    <t>574 bp</t>
   </si>
 </sst>
 </file>
@@ -53,20 +140,25 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Open Sans"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,13 +166,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -361,42 +473,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
